--- a/output_files/cl_2.xlsx
+++ b/output_files/cl_2.xlsx
@@ -471,7 +471,7 @@
     <t>Poly. Reg. Order: 6 qLactate (mmol/109 cell/hr)</t>
   </si>
   <si>
-    <t>Poly. Reg. Order: 4 qGlutamine (mmol/109 cell/hr)</t>
+    <t>Poly. Reg. Order: 3 qGlutamine (mmol/109 cell/hr)</t>
   </si>
   <si>
     <t>Poly. Reg. Order: 4 qAsparagine (mmol/109 cell/hr)</t>
@@ -1862,7 +1862,7 @@
         <v>0.07904786714334167</v>
       </c>
       <c r="FA3">
-        <v>-0.001716653102817419</v>
+        <v>-0.002832884895132402</v>
       </c>
       <c r="FB3">
         <v>0.04417089171861874</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="FF3">
-        <v>-0.0175464340868935</v>
+        <v>-0.02895577913010866</v>
       </c>
     </row>
     <row r="4" spans="1:162">
@@ -2176,7 +2176,7 @@
         <v>0.04263411636414297</v>
       </c>
       <c r="FA4">
-        <v>-0.001365118616808816</v>
+        <v>-0.001514975722190499</v>
       </c>
       <c r="FB4">
         <v>0.03342091570851183</v>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="FF4">
-        <v>-0.02184163689841522</v>
+        <v>-0.0242393219362515</v>
       </c>
     </row>
     <row r="5" spans="1:162">
@@ -2493,7 +2493,7 @@
         <v>0.001960211547263117</v>
       </c>
       <c r="FA5">
-        <v>-0.0009891582163372326</v>
+        <v>-0.0008089419970008897</v>
       </c>
       <c r="FB5">
         <v>0.02438756402501905</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="FF5">
-        <v>-0.02072768491899521</v>
+        <v>-0.01695127690862823</v>
       </c>
     </row>
     <row r="6" spans="1:162">
@@ -2681,7 +2681,7 @@
         <v>-0.01645847136280785</v>
       </c>
       <c r="FA6">
-        <v>-0.0007141194343804005</v>
+        <v>-0.0004977947280054971</v>
       </c>
       <c r="FB6">
         <v>0.01853534382294614</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="FF6">
-        <v>-0.01620675437562108</v>
+        <v>-0.01129732156535413</v>
       </c>
     </row>
     <row r="7" spans="1:162">
@@ -2869,7 +2869,7 @@
         <v>-0.01887610303772539</v>
       </c>
       <c r="FA7">
-        <v>-0.0004549395261852998</v>
+        <v>-0.0002950836599217646</v>
       </c>
       <c r="FB7">
         <v>0.01278659234151529</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="FF7">
-        <v>-0.01195111310231034</v>
+        <v>-0.007751751587599559</v>
       </c>
     </row>
     <row r="8" spans="1:162">
@@ -3186,7 +3186,7 @@
         <v>-0.01419171053652871</v>
       </c>
       <c r="FA8">
-        <v>-0.0001927380689548288</v>
+        <v>-0.0001260585974376428</v>
       </c>
       <c r="FB8">
         <v>0.007218001676553579</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="FF8">
-        <v>-0.005582691732465606</v>
+        <v>-0.00365130922779076</v>
       </c>
     </row>
     <row r="9" spans="1:162">
@@ -3374,7 +3374,7 @@
         <v>-0.009508473042604847</v>
       </c>
       <c r="FA9">
-        <v>-7.176518525209143E-05</v>
+        <v>-6.235805953608842E-05</v>
       </c>
       <c r="FB9">
         <v>0.005092896816434794</v>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="FF9">
-        <v>-0.001913654331362302</v>
+        <v>-0.001662808648892971</v>
       </c>
     </row>
     <row r="10" spans="1:162">
@@ -3688,7 +3688,7 @@
         <v>-0.002942564143277045</v>
       </c>
       <c r="FA10">
-        <v>5.560984761768056E-05</v>
+        <v>-4.023747320940328E-07</v>
       </c>
       <c r="FB10">
         <v>0.002941554452482147</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="FF10">
-        <v>0.001334233372687782</v>
+        <v>-9.65407780969129E-06</v>
       </c>
     </row>
     <row r="11" spans="1:162">
@@ -4005,7 +4005,7 @@
         <v>0.003073498789765713</v>
       </c>
       <c r="FA11">
-        <v>0.0001764885594612639</v>
+        <v>6.034100746163684E-05</v>
       </c>
       <c r="FB11">
         <v>0.001030771849568556</v>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="FF11">
-        <v>0.003730360421180339</v>
+        <v>0.00127540111776164</v>
       </c>
     </row>
     <row r="12" spans="1:162">
@@ -4193,7 +4193,7 @@
         <v>0.0059228512344941</v>
       </c>
       <c r="FA12">
-        <v>0.0002878804899057298</v>
+        <v>0.0001313926987622209</v>
       </c>
       <c r="FB12">
         <v>-0.0004414579854916408</v>
@@ -4208,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="FF12">
-        <v>0.005122425692934533</v>
+        <v>0.002337947028727117</v>
       </c>
     </row>
     <row r="13" spans="1:162">
@@ -4381,7 +4381,7 @@
         <v>0.002896029196512443</v>
       </c>
       <c r="FA13">
-        <v>0.0003082151544692247</v>
+        <v>0.0001841079067549934</v>
       </c>
       <c r="FB13">
         <v>-0.0007463502852391654</v>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="FF13">
-        <v>0.005233563505460352</v>
+        <v>0.003126194179254221</v>
       </c>
     </row>
     <row r="14" spans="1:162">
@@ -4569,7 +4569,7 @@
         <v>-0.005105344110629914</v>
       </c>
       <c r="FA14">
-        <v>0.000212831745779607</v>
+        <v>0.0002452878359820021</v>
       </c>
       <c r="FB14">
         <v>0.0009498063309602366</v>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="FF14">
-        <v>0.00354507685746848</v>
+        <v>0.004085688568559584</v>
       </c>
     </row>
     <row r="15" spans="1:162">
@@ -4757,7 +4757,7 @@
         <v>-0.008299790896822633</v>
       </c>
       <c r="FA15">
-        <v>3.894561814786423E-05</v>
+        <v>0.0002971253601534248</v>
       </c>
       <c r="FB15">
         <v>0.004161749255818273</v>
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="FF15">
-        <v>0.0006372262679112484</v>
+        <v>0.004861550370917288</v>
       </c>
     </row>
     <row r="16" spans="1:162">
@@ -5071,7 +5071,7 @@
         <v>0.01400691507490146</v>
       </c>
       <c r="FA16">
-        <v>-0.00048520971567475</v>
+        <v>0.0003245734749676272</v>
       </c>
       <c r="FB16">
         <v>0.01270217349091528</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="FF16">
-        <v>-0.01016156436207629</v>
+        <v>0.006797420063033446</v>
       </c>
     </row>
   </sheetData>
@@ -6008,7 +6008,7 @@
         <v>0.07000957554697285</v>
       </c>
       <c r="FA3">
-        <v>-0.002422125901456302</v>
+        <v>-0.003312494516016512</v>
       </c>
       <c r="FB3">
         <v>0.04028381697151286</v>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="FF3">
-        <v>-0.02469003292963297</v>
+        <v>-0.03376603942450009</v>
       </c>
     </row>
     <row r="4" spans="1:162">
@@ -6322,7 +6322,7 @@
         <v>0.03824896480281784</v>
       </c>
       <c r="FA4">
-        <v>-0.001671078473970405</v>
+        <v>-0.001796895347088468</v>
       </c>
       <c r="FB4">
         <v>0.03283576427594227</v>
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="FF4">
-        <v>-0.02585015831922675</v>
+        <v>-0.02779643800626292</v>
       </c>
     </row>
     <row r="5" spans="1:162">
@@ -6639,7 +6639,7 @@
         <v>-0.0006459361360646745</v>
       </c>
       <c r="FA5">
-        <v>-0.001052758272992711</v>
+        <v>-0.0009090304348041828</v>
       </c>
       <c r="FB5">
         <v>0.02406089550174855</v>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="FF5">
-        <v>-0.02171926775178888</v>
+        <v>-0.01875404441316968</v>
       </c>
     </row>
     <row r="6" spans="1:162">
@@ -6827,7 +6827,7 @@
         <v>-0.01523546489856489</v>
       </c>
       <c r="FA6">
-        <v>-0.0006248079770216804</v>
+        <v>-0.0004717948118574692</v>
       </c>
       <c r="FB6">
         <v>0.01628930737619943</v>
@@ -6842,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="FF6">
-        <v>-0.01572639912934436</v>
+        <v>-0.01187506208514209</v>
       </c>
     </row>
     <row r="7" spans="1:162">
@@ -7015,7 +7015,7 @@
         <v>-0.01827281117834953</v>
       </c>
       <c r="FA7">
-        <v>-0.0004226392087695957</v>
+        <v>-0.0002961765515160708</v>
       </c>
       <c r="FB7">
         <v>0.01259742975212175</v>
@@ -7030,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="FF7">
-        <v>-0.01094899401300603</v>
+        <v>-0.007672821692958646</v>
       </c>
     </row>
     <row r="8" spans="1:162">
@@ -7332,7 +7332,7 @@
         <v>-0.01301932956548185</v>
       </c>
       <c r="FA8">
-        <v>-0.0001609751337137565</v>
+        <v>-0.0001071523647927637</v>
       </c>
       <c r="FB8">
         <v>0.007253998874995054</v>
@@ -7347,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="FF8">
-        <v>-0.004428467163427457</v>
+        <v>-0.002947789003313643</v>
       </c>
     </row>
     <row r="9" spans="1:162">
@@ -7520,7 +7520,7 @@
         <v>-0.007668662270676403</v>
       </c>
       <c r="FA9">
-        <v>-3.749723025378495E-05</v>
+        <v>-3.007586538761319E-05</v>
       </c>
       <c r="FB9">
         <v>0.004882015506624279</v>
@@ -7535,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="FF9">
-        <v>-0.0009785467795800982</v>
+        <v>-0.0007848750699436717</v>
       </c>
     </row>
     <row r="10" spans="1:162">
@@ -7834,7 +7834,7 @@
         <v>-0.001418029762063524</v>
       </c>
       <c r="FA10">
-        <v>7.695499258702139E-05</v>
+        <v>3.683242562561006E-05</v>
       </c>
       <c r="FB10">
         <v>0.002624429008988797</v>
@@ -7849,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="FF10">
-        <v>0.001889846302268643</v>
+        <v>0.000904523813623022</v>
       </c>
     </row>
     <row r="11" spans="1:162">
@@ -8151,7 +8151,7 @@
         <v>0.003294961588337139</v>
       </c>
       <c r="FA11">
-        <v>0.0001825441177095668</v>
+        <v>9.930255274504856E-05</v>
       </c>
       <c r="FB11">
         <v>0.0009024769247971154</v>
@@ -8166,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="FF11">
-        <v>0.003852839885950329</v>
+        <v>0.00209591435097094</v>
       </c>
     </row>
     <row r="12" spans="1:162">
@@ -8339,7 +8339,7 @@
         <v>0.0043780470904482</v>
       </c>
       <c r="FA12">
-        <v>0.0002758409325457831</v>
+        <v>0.0001667160872243781</v>
       </c>
       <c r="FB12">
         <v>-0.0003797573769389775</v>
@@ -8354,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="FF12">
-        <v>0.004867040533471396</v>
+        <v>0.002941600967681348</v>
       </c>
     </row>
     <row r="13" spans="1:162">
@@ -8527,7 +8527,7 @@
         <v>0.000453355271226884</v>
       </c>
       <c r="FA13">
-        <v>0.0002738351059657436</v>
+        <v>0.0001948553502139211</v>
       </c>
       <c r="FB13">
         <v>-0.0005097342896024543</v>
@@ -8542,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="FF13">
-        <v>0.0048337139959311</v>
+        <v>0.003439570066041547</v>
       </c>
     </row>
     <row r="14" spans="1:162">
@@ -8715,7 +8715,7 @@
         <v>-0.005697202129936022</v>
       </c>
       <c r="FA14">
-        <v>0.0002030436810110526</v>
+        <v>0.0002221126692452046</v>
       </c>
       <c r="FB14">
         <v>0.0009719945458981321</v>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="FF14">
-        <v>0.003524642147140326</v>
+        <v>0.003855661360832362</v>
       </c>
     </row>
     <row r="15" spans="1:162">
@@ -8903,7 +8903,7 @@
         <v>-0.006387463048335801</v>
       </c>
       <c r="FA15">
-        <v>0.0001014969325528964</v>
+        <v>0.0002529779940507871</v>
       </c>
       <c r="FB15">
         <v>0.003562661223711738</v>
@@ -8918,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="FF15">
-        <v>0.001633368215503401</v>
+        <v>0.004071120223155674</v>
       </c>
     </row>
     <row r="16" spans="1:162">
@@ -9217,7 +9217,7 @@
         <v>0.01790445332902249</v>
       </c>
       <c r="FA16">
-        <v>-0.000214997485143391</v>
+        <v>0.0002444062830352398</v>
       </c>
       <c r="FB16">
         <v>0.009978499913898809</v>
@@ -9232,7 +9232,7 @@
         <v>0</v>
       </c>
       <c r="FF16">
-        <v>-0.003844844301455881</v>
+        <v>0.004370767890337536</v>
       </c>
     </row>
   </sheetData>
@@ -10154,7 +10154,7 @@
         <v>0.08269228332967746</v>
       </c>
       <c r="FA3">
-        <v>-0.001008552632875426</v>
+        <v>-0.002471211997709146</v>
       </c>
       <c r="FB3">
         <v>0.04003951104108452</v>
@@ -10169,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="FF3">
-        <v>-0.009595941697729293</v>
+        <v>-0.02351251236649654</v>
       </c>
     </row>
     <row r="4" spans="1:162">
@@ -10468,7 +10468,7 @@
         <v>0.05530106226886156</v>
       </c>
       <c r="FA4">
-        <v>-0.001500493664338697</v>
+        <v>-0.001704950822015634</v>
       </c>
       <c r="FB4">
         <v>0.0346268260659513</v>
@@ -10483,7 +10483,7 @@
         <v>0</v>
       </c>
       <c r="FF4">
-        <v>-0.02414863284376436</v>
+        <v>-0.02743912380041628</v>
       </c>
     </row>
     <row r="5" spans="1:162">
@@ -10785,7 +10785,7 @@
         <v>0.01021983757418776</v>
       </c>
       <c r="FA5">
-        <v>-0.001586122953933252</v>
+        <v>-0.001321511016946483</v>
       </c>
       <c r="FB5">
         <v>0.02950847487610355</v>
@@ -10800,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="FF5">
-        <v>-0.03260987769256164</v>
+        <v>-0.02716959144001587</v>
       </c>
     </row>
     <row r="6" spans="1:162">
@@ -10973,7 +10973,7 @@
         <v>-0.01264836030848904</v>
       </c>
       <c r="FA6">
-        <v>-0.001130842355221425</v>
+        <v>-0.0008663788486339188</v>
       </c>
       <c r="FB6">
         <v>0.01919944687440367</v>
@@ -10988,7 +10988,7 @@
         <v>0</v>
       </c>
       <c r="FF6">
-        <v>-0.03019930351957316</v>
+        <v>-0.02313676852660068</v>
       </c>
     </row>
     <row r="7" spans="1:162">
@@ -11161,7 +11161,7 @@
         <v>-0.01841679857983124</v>
       </c>
       <c r="FA7">
-        <v>-0.0008926783582858823</v>
+        <v>-0.0006828568926077874</v>
       </c>
       <c r="FB7">
         <v>0.01445892850544604</v>
@@ -11176,7 +11176,7 @@
         <v>0</v>
       </c>
       <c r="FF7">
-        <v>-0.02503507500895079</v>
+        <v>-0.01915065305228356</v>
       </c>
     </row>
     <row r="8" spans="1:162">
@@ -11478,7 +11478,7 @@
         <v>-0.01481860782201046</v>
       </c>
       <c r="FA8">
-        <v>-0.0005200766244089278</v>
+        <v>-0.0004358074555310726</v>
       </c>
       <c r="FB8">
         <v>0.008044741297163876</v>
@@ -11493,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="FF8">
-        <v>-0.01566829312606828</v>
+        <v>-0.0131295248417429</v>
       </c>
     </row>
     <row r="9" spans="1:162">
@@ -11666,7 +11666,7 @@
         <v>-0.01014493279476176</v>
       </c>
       <c r="FA9">
-        <v>-0.0003534027433440762</v>
+        <v>-0.0003420130916524767</v>
       </c>
       <c r="FB9">
         <v>0.005450643919294607</v>
@@ -11681,7 +11681,7 @@
         <v>0</v>
       </c>
       <c r="FF9">
-        <v>-0.009933109495493336</v>
+        <v>-0.009612979956323237</v>
       </c>
     </row>
     <row r="10" spans="1:162">
@@ -11980,7 +11980,7 @@
         <v>-0.00414471031914901</v>
       </c>
       <c r="FA10">
-        <v>-0.0001840050669105348</v>
+        <v>-0.0002480446895488333</v>
       </c>
       <c r="FB10">
         <v>0.003099839571159239</v>
@@ -11995,7 +11995,7 @@
         <v>0</v>
       </c>
       <c r="FF10">
-        <v>-0.004617991639014644</v>
+        <v>-0.006225199782109445</v>
       </c>
     </row>
     <row r="11" spans="1:162">
@@ -12297,7 +12297,7 @@
         <v>0.0009928566578946126</v>
       </c>
       <c r="FA11">
-        <v>-1.595827044862746E-05</v>
+        <v>-0.0001436160807062892</v>
       </c>
       <c r="FB11">
         <v>0.001130060343515691</v>
@@ -12312,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="FF11">
-        <v>-0.0003499068999433976</v>
+        <v>-0.003148978941278725</v>
       </c>
     </row>
     <row r="12" spans="1:162">
@@ -12485,7 +12485,7 @@
         <v>0.002648852804962051</v>
       </c>
       <c r="FA12">
-        <v>0.000138450296727746</v>
+        <v>-5.197368488491341E-06</v>
       </c>
       <c r="FB12">
         <v>-0.0002839934614768937</v>
@@ -12500,7 +12500,7 @@
         <v>0</v>
       </c>
       <c r="FF12">
-        <v>0.002916868143868185</v>
+        <v>-0.0001094980576736214</v>
       </c>
     </row>
     <row r="13" spans="1:162">
@@ -12673,7 +12673,7 @@
         <v>0.0004512810137354697</v>
       </c>
       <c r="FA13">
-        <v>0.0002440519515158952</v>
+        <v>0.0001316652206826736</v>
       </c>
       <c r="FB13">
         <v>-0.0005826365085633566</v>
@@ -12688,7 +12688,7 @@
         <v>0</v>
       </c>
       <c r="FF13">
-        <v>0.004741142046056924</v>
+        <v>0.002557830453330058</v>
       </c>
     </row>
     <row r="14" spans="1:162">
@@ -12861,7 +12861,7 @@
         <v>-0.004313070651729599</v>
       </c>
       <c r="FA14">
-        <v>0.0002999656431072363</v>
+        <v>0.0003282655531060657</v>
       </c>
       <c r="FB14">
         <v>0.0006667261110778257</v>
@@ -12876,7 +12876,7 @@
         <v>0</v>
       </c>
       <c r="FF14">
-        <v>0.005625986622141884</v>
+        <v>0.006156763791860334</v>
       </c>
     </row>
     <row r="15" spans="1:162">
@@ -13049,7 +13049,7 @@
         <v>-0.004555615663499087</v>
       </c>
       <c r="FA15">
-        <v>0.000284753824226867</v>
+        <v>0.0004990337747048606</v>
       </c>
       <c r="FB15">
         <v>0.002933823836872886</v>
@@ -13064,7 +13064,7 @@
         <v>0</v>
       </c>
       <c r="FF15">
-        <v>0.005247046687306723</v>
+        <v>0.009195499029832705</v>
       </c>
     </row>
     <row r="16" spans="1:162">
@@ -13363,7 +13363,7 @@
         <v>0.01762306524837993</v>
       </c>
       <c r="FA16">
-        <v>0.0001063102700199677</v>
+        <v>0.0008199789215600166</v>
       </c>
       <c r="FB16">
         <v>0.009716639468362981</v>
@@ -13378,7 +13378,7 @@
         <v>0</v>
       </c>
       <c r="FF16">
-        <v>0.002101454707438254</v>
+        <v>0.01620867451835829</v>
       </c>
     </row>
   </sheetData>
